--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3889.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3889.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3889</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ajinkya M Rahane</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -451,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -503,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3322</t>
+          <t>3322</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -555,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3323</t>
+          <t>3323</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -607,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3325</t>
+          <t>3325</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -659,7 +724,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3327</t>
+          <t>3327</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -711,7 +776,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3331</t>
+          <t>3331</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -763,7 +828,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3335</t>
+          <t>3335</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -815,7 +880,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3337</t>
+          <t>3337</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -867,7 +932,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3341</t>
+          <t>3341</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -919,7 +984,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3343</t>
+          <t>3343</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -971,7 +1036,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3346</t>
+          <t>3346</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1023,7 +1088,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3360</t>
+          <t>3360</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1075,7 +1140,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3435</t>
+          <t>3435</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1127,7 +1192,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3457</t>
+          <t>3457</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1179,7 +1244,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3459</t>
+          <t>3459</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1231,7 +1296,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3461</t>
+          <t>3461</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1283,7 +1348,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3463</t>
+          <t>3463</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1335,7 +1400,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3545</t>
+          <t>3545</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1387,7 +1452,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3587</t>
+          <t>3587</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1439,7 +1504,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3601</t>
+          <t>3601</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1491,7 +1556,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3603</t>
+          <t>3603</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1543,7 +1608,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3607</t>
+          <t>3607</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1595,7 +1660,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3609</t>
+          <t>3609</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1647,7 +1712,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3612</t>
+          <t>3612</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1699,7 +1764,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3619</t>
+          <t>3619</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1751,7 +1816,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3621</t>
+          <t>3621</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1803,7 +1868,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3624</t>
+          <t>3624</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1855,7 +1920,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3628</t>
+          <t>3628</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1907,7 +1972,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3643</t>
+          <t>3643</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1959,7 +2024,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3644</t>
+          <t>3644</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2011,7 +2076,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3645</t>
+          <t>3645</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2063,7 +2128,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3664</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2115,7 +2180,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3667</t>
+          <t>3667</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2167,7 +2232,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3670</t>
+          <t>3670</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2219,7 +2284,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3672</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2271,7 +2336,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3678</t>
+          <t>3678</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2323,7 +2388,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3680</t>
+          <t>3680</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2375,7 +2440,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3683</t>
+          <t>3683</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2427,7 +2492,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3688</t>
+          <t>3688</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2479,7 +2544,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3689</t>
+          <t>3689</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2531,7 +2596,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3692</t>
+          <t>3692</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2583,7 +2648,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3693</t>
+          <t>3693</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2635,7 +2700,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3696</t>
+          <t>3696</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2687,7 +2752,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3731</t>
+          <t>3731</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2739,7 +2804,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3735</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2791,7 +2856,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3741</t>
+          <t>3741</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2843,7 +2908,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3744</t>
+          <t>3744</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2895,7 +2960,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3751</t>
+          <t>3751</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2947,7 +3012,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3760</t>
+          <t>3760</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2987,7 +3052,6 @@
           <t>49</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr">
         <is>
           <t>28/02/2015</t>
@@ -2995,7 +3059,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3768</t>
+          <t>3768</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3047,7 +3111,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3775</t>
+          <t>3775</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3099,7 +3163,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3781</t>
+          <t>3781</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3151,7 +3215,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3786</t>
+          <t>3786</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3203,7 +3267,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3791</t>
+          <t>3791</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3255,7 +3319,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3795</t>
+          <t>3795</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3307,7 +3371,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3808</t>
+          <t>3808</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3359,7 +3423,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3812</t>
+          <t>3812</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3411,7 +3475,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3815</t>
+          <t>3815</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3463,7 +3527,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3817</t>
+          <t>3817</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3515,7 +3579,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3841</t>
+          <t>3841</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3567,7 +3631,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3844</t>
+          <t>3844</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3619,7 +3683,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3845</t>
+          <t>3845</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3671,7 +3735,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3848</t>
+          <t>3848</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3723,7 +3787,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3851</t>
+          <t>3851</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3763,7 +3827,6 @@
           <t>64</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr">
         <is>
           <t>12/01/2016</t>
@@ -3771,7 +3834,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3874</t>
+          <t>3874</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3823,7 +3886,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3875</t>
+          <t>3875</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3875,7 +3938,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3876</t>
+          <t>3876</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3927,7 +3990,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3877</t>
+          <t>3877</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3979,7 +4042,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3951</t>
+          <t>3951</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4031,7 +4094,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3952</t>
+          <t>3952</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4083,7 +4146,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3953</t>
+          <t>3953</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4135,7 +4198,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3954</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4187,7 +4250,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3955</t>
+          <t>3955</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4239,7 +4302,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3978</t>
+          <t>3978</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4291,7 +4354,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4051</t>
+          <t>4051</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4343,7 +4406,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4052</t>
+          <t>4052</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4395,7 +4458,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4053</t>
+          <t>4053</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4447,7 +4510,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4056</t>
+          <t>4056</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4499,7 +4562,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4057</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4551,7 +4614,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4065</t>
+          <t>4065</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4603,7 +4666,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4067</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4655,7 +4718,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4069</t>
+          <t>4069</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4707,7 +4770,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4071</t>
+          <t>4071</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4759,7 +4822,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4074</t>
+          <t>4074</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4811,7 +4874,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4076</t>
+          <t>4076</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4863,7 +4926,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4126</t>
+          <t>4126</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4903,7 +4966,6 @@
           <t>86</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr">
         <is>
           <t>04/02/2018</t>
@@ -4911,7 +4973,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4127</t>
+          <t>4127</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4963,7 +5025,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4128</t>
+          <t>4128</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5015,7 +5077,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4130</t>
+          <t>4130</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5067,7 +5129,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4133</t>
+          <t>4133</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5119,7 +5181,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4135</t>
+          <t>4135</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5150,6 +5212,561 @@
       <c r="J91" t="inlineStr">
         <is>
           <t>50</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3954</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.65%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3955</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>7.43%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3978</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4051</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4052</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>33.23%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4053</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4056</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>33.71%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4057</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>18.93%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4065</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4067</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.78%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4069</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.83%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4071</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.81%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>25.10%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4126</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4127</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4128</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3.63%</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4130</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.77%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4133</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2.92%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4135</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>4</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>16.50%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3889.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3889.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Batting Extra" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/bin/sheets/main_db/teams/IND/PlayerPerformance_3889.xlsx
+++ b/bin/sheets/main_db/teams/IND/PlayerPerformance_3889.xlsx
@@ -5226,7 +5226,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5269,25 +5269,25 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3954</t>
+          <t>3322</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>23.65%</t>
+          <t>14.60%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -5299,27 +5299,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3955</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>7.43%</t>
-        </is>
-      </c>
+          <t>3323</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5329,12 +5315,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3978</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+          <t>3325</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
@@ -5345,7 +5341,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4051</t>
+          <t>3327</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -5361,43 +5357,43 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4052</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>33.23%</t>
-        </is>
-      </c>
+          <t>3331</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>YES</t>
+          <t>NO</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4053</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+          <t>3335</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>5.00%</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5407,25 +5403,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4056</t>
+          <t>3337</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33.71%</t>
+          <t>5.88%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -5437,27 +5433,13 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4057</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>18.93%</t>
-        </is>
-      </c>
+          <t>3341</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5467,7 +5449,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4065</t>
+          <t>3343</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -5483,27 +5465,13 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4067</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.78%</t>
-        </is>
-      </c>
+          <t>3346</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5513,15 +5481,15 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4069</t>
+          <t>3360</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -5529,11 +5497,7 @@
           <t>0</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>21.83%</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5543,15 +5507,15 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4071</t>
+          <t>3435</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -5561,7 +5525,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23.81%</t>
+          <t>3.06%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -5573,13 +5537,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4074</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+          <t>3457</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2.40%</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5589,27 +5567,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4076</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>25.10%</t>
-        </is>
-      </c>
+          <t>3459</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5619,13 +5583,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4126</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+          <t>3461</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.40%</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -5635,14 +5613,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4127</t>
+          <t>3463</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
@@ -5653,25 +5639,25 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4128</t>
+          <t>3545</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.63%</t>
+          <t>29.94%</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -5683,7 +5669,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4130</t>
+          <t>3587</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -5701,7 +5687,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.77%</t>
+          <t>5.48%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -5713,7 +5699,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4133</t>
+          <t>3601</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -5731,7 +5717,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.92%</t>
+          <t>2.61%</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -5743,7 +5729,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4135</t>
+          <t>3603</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -5751,20 +5737,1750 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>13.00%</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3607</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>4</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>0.96%</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>3609</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1.08%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>3612</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>4</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.93%</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>3619</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>3621</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>3624</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>3628</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>35.00%</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>3643</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>41.83%</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>3644</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>3645</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>3664</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>4</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>13.49%</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>3667</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>3670</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>3672</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>3678</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>12.18%</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>3680</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>4.56%</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>3683</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>20.61%</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>3688</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>30.58%</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>3689</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>3692</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>3693</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>6.93%</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>3696</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>3731</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>3735</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21.57%</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>3741</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>3744</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>36.50%</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>3751</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>7</v>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3760</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>4</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>25.73%</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>3768</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>4</v>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>3775</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>4</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>7.57%</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3781</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>4</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>12.69%</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>3786</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>3791</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>4</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>6.29%</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>3795</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>4</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>18.88%</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>3808</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>4</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>3.95%</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>3812</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>13.33%</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>3815</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>3817</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>5.43%</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>3841</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>20.13%</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>3844</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>3</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>20.65%</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>3845</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>6</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1.59%</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>3848</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr"/>
+      <c r="C63" t="inlineStr"/>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>3851</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>3874</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>6</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>3875</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr"/>
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>3876</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>4</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>16.95%</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>3877</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>3951</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr"/>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>3952</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>11.86%</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>3953</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1.73%</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>3954</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>23.65%</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>3955</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>7.43%</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>3978</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>4051</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr"/>
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>4052</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>33.23%</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>4053</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>4056</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>33.71%</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>4057</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>18.93%</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>4065</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>4067</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1.78%</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>4069</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>21.83%</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>4071</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>23.81%</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>4074</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr"/>
+      <c r="C84" t="inlineStr"/>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>4076</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>25.10%</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>4126</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
+      <c r="C86" t="inlineStr"/>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>4127</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>4</v>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>4128</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>4</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>3.63%</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>4130</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>4</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2.77%</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>4133</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>4</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2.92%</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>4135</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>4</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
         <is>
           <t>16.50%</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
